--- a/Lesson5/Задачи 2 и 4.xlsx
+++ b/Lesson5/Задачи 2 и 4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sych_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sych_\PycharmProjects\terver\Lesson5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C50C247-74D8-4455-AF68-5EBFE68FCD25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9828DAC-C4B6-4795-B934-24560FC559A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{039CDF5E-5893-4FD9-BC19-9CCEF0F38CEB}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -474,11 +474,11 @@
         <v>6.59</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C21" si="0">A3-B3</f>
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
         <v>-0.49000000000000021</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" si="1">C3*C3</f>
+        <f t="shared" ref="D3:D11" si="1">C3*C3</f>
         <v>0.2401000000000002</v>
       </c>
     </row>
@@ -616,8 +616,8 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <f>SUM(D2:D11)/19</f>
-        <v>9.6263157894736884E-2</v>
+        <f>SUM(D2:D11)/9</f>
+        <v>0.2032222222222223</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -626,8 +626,8 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <f>SQRT(SUM(D2:D11)/19)</f>
-        <v>0.31026304629255624</v>
+        <f>SQRT(SUM(D2:D11)/9)</f>
+        <v>0.45080175490144481</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +641,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -824,8 +824,8 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <f>SUM(D2:D11)/19</f>
-        <v>9.3947368421052637</v>
+        <f>SUM(D2:D11)/9</f>
+        <v>19.833333333333332</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -834,8 +834,8 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <f>SQRT(SUM(D2:D11)/19)</f>
-        <v>3.0650834967591445</v>
+        <f>SQRT(SUM(D2:D11)/9)</f>
+        <v>4.4534630719624619</v>
       </c>
     </row>
   </sheetData>
